--- a/data_description.xlsx
+++ b/data_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29141\Desktop\NUS\courses\CS5228-Knowledge Discovery and Data Mining\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29141\Desktop\NUS\courses\CS5228-Knowledge Discovery and Data Mining\Project\CS5228-Prediction-of-rent-rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6EC15C-6CAC-4261-B587-CB3C6E7995AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C709BB8-5D90-4EE0-83FE-C469C22D2AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2052" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>block</t>
   </si>
   <si>
-    <t>street_name</t>
-  </si>
-  <si>
     <t>flat_type</t>
   </si>
   <si>
@@ -96,6 +93,10 @@
   </si>
   <si>
     <t>One-Hot</t>
+  </si>
+  <si>
+    <t>street_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -496,95 +497,95 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -634,7 +635,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -651,13 +652,13 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
